--- a/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_turkish.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/middle_eastern/middle_turkish.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641669-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Turkish Recipes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641676-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2H8oea7rtrCx20vIlAOsZMU6Gfs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/398187-5a0891f4d2174059ad961027a3b7211e.jpg"
@@ -201,59 +542,55 @@
 Kesme Helva</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283715/kesme-helva/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Kesme Helva</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n9 \n\n\nYield:\n1 9x9-inch dish"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups all-purpose flour, sifted\n\n\n1 cup confectioners' sugar, sifted\n\n\n7 ounces unsalted butter, melted\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "4 cups all-purpose flour, sifted\n\n\n1 cup confectioners' sugar, sifted\n\n\n7 ounces unsalted butter, melted\n\n\n1 teaspoon vanilla extract"}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put flour in a wide saucepan. Cook and stir over medium heat until fragrant, about 15 minutes. Don't let it turn yellow. Add sugar slowly, mixing well, until combined."},{"recipe_directions":"Add melted butter and vanilla to the mixture. Mix all by a spoon or your hands, but be careful, as it can be very hot, until it has a sand-like consistency. Transfer to a 9x9-inch pan, pressing down as much as you can."},{"recipe_directions":"Cut the mixture into a baklava shape or squares."},{"recipe_directions":"Chill until set, 1 to 2 hours. Serve."},{"recipe_directions":"Be careful while serving; it is fragile!"}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Specialty Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"414\nCalories\n\n\n18g \nFat\n\n\n56g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641683-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5Osgdi0qFuMV5r7bzjqvQeKugqs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8064909-d76c5bd3a94c4b2cb4c1e6c9b34e3105.jpg"
@@ -264,59 +601,55 @@
 Turkish Pogaça</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282554/turkish-pogaca/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Turkish Pogaça</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n50 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 teaspoons active dry yeast\n\n\n1 ½ teaspoons white sugar\n\n\n2 tablespoons warm milk\n\n\n1 cup all-purpose flour, or more as needed\n\n\n1 cup whole wheat flour\n\n\n½ cup warm water, or more as needed\n\n\n¼ cup vegetable oil\n\n\n½ teaspoon salt\n\n\n1 teaspoon salted butter, or as needed"},{"recipe_ingredients":"1 cup crumbled feta cheese\n\n\n½ bunch fresh parsley, chopped\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon chili powder"},{"recipe_ingredients":"2 tablespoons milk, or as needed\n\n\n1 teaspoon poppy seeds, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 teaspoons active dry yeast\n\n\n1 ½ teaspoons white sugar\n\n\n2 tablespoons warm milk\n\n\n1 cup all-purpose flour, or more as needed\n\n\n1 cup whole wheat flour\n\n\n½ cup warm water, or more as needed\n\n\n¼ cup vegetable oil\n\n\n½ teaspoon salt\n\n\n1 teaspoon salted butter, or as needed'}, {'recipe_ingredients': '1 cup crumbled feta cheese\n\n\n½ bunch fresh parsley, chopped\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon chili powder'}, {'recipe_ingredients': '2 tablespoons milk, or as needed\n\n\n1 teaspoon poppy seeds, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve yeast and sugar in warm milk in a bowl. Let stand until yeast softens and begins to form a creamy foam, about 5 minutes."},{"recipe_directions":"Combine 1 cup all-purpose flour, whole wheat flour, 1/2 cup water, vegetable oil, salt, and yeast mixture in the bowl of a stand mixer fitted with the hook attachment; knead until pliable and not too sticky. Add a little flour if too soft, or warm water if too hard. Cover with a wet cloth and let sit at room temperature for 45 to 50 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a baking tray with butter."},{"recipe_directions":"Mix feta cheese, parsley, salt, pepper, and chili powder together in a bowl until well combined."},{"recipe_directions":"Knead dough for 2 minutes. Divide it into 12 equal portions, and roll each one into a ball. Use your hands or a rolling pin to flatten each ball into a 2- to 3-inch circle. Add a spoon of cheese filling in the middles and fold the edges upward like a bundle, pressing to secure. Place on the prepared baking try, folded-sides down. Brush with milk and sprinkle with poppy seeds."},{"recipe_directions":"Bake on the top rack of the preheated oven until golden, 30 to 32 minutes."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"181\nCalories\n\n\n10g \nFat\n\n\n18g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641688-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xtLbCoF9GrTrLcgRO9vHBk58oZM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1559x0:1561x2):format(webp)/5351973-c6293b44c0fe481b9ae2920e31b5bc74.jpg"
@@ -329,59 +662,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8929/kobete-chicken/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Kobete Chicken</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups all-purpose flour\n\n\n½ teaspoon salt\n\n\n1 cup warm water\n\n\n1 (2 to 3 pound) whole chicken\n\n\n  water to cover\n\n\n1 teaspoon salt\n\n\n1  onion, peeled\n\n\n2 tablespoons butter\n\n\n3 cups uncooked white rice\n\n\n½ teaspoon salt\n\n\n6 cups water\n\n\n  freshly ground black pepper\n\n\n1  egg, beaten\n\n\n1 (10 inch) unbaked pie crust"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups all-purpose flour\n\n\n½ teaspoon salt\n\n\n1 cup warm water\n\n\n1 (2 to 3 pound) whole chicken\n\n\n  water to cover\n\n\n1 teaspoon salt\n\n\n1  onion, peeled\n\n\n2 tablespoons butter\n\n\n3 cups uncooked white rice\n\n\n½ teaspoon salt\n\n\n6 cups water\n\n\n  freshly ground black pepper\n\n\n1  egg, beaten\n\n\n1 (10 inch) unbaked pie crust'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To Make Dough: Combine flour, 1/2 teaspoon salt and 1 cup water. Mix together. Dough should be as soft as an ear lobe. Divide the dough into two pieces, cover with a wet cloth and set aside."},{"recipe_directions":"Fill a large pot with water. Add 1 teaspoon salt and a whole peeled onion. Bring water to a boil and boil whole chicken in water until it is tender. Remove chicken from pot, remove bones and cut chicken meat into small pieces."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Melt 2 tablespoons butter/margarine in pot over medium heat. Add rice, turn heat to high and cook rice, stirring, for about 2 minutes. Add 1/2 teaspoon salt and 6 cups water. Cover pot. Bring water to a boil, then remove cover, reduce heat to low and simmer about 10 minutes, until the rice absorbs all of the water."},{"recipe_directions":"Roll 2 reserved dough pieces out into 2 separate rounds/circles to fit a 10 inch pie dish. Lay one round of dough in the lightly greased pie dish. Spoon in the rice mixture and season with fresh ground black pepper. Spread the chicken pieces on top of the rice and cover with the second dough round. Pinch the sides closed, trimming off any excess dough. Brush top with egg and bake in the preheated oven for about 30 minutes. Kobete is ready when the top is a nice yellowish brown."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"735\nCalories\n\n\n28g \nFat\n\n\n86g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641694-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WD087RSAjPZIhJhB3G0I6knxKsA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8477007-c43a5a8b6dbe4c2d8eefce6c17c53917.jpg"
@@ -394,59 +723,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263999/vegan-turkish-baked-eggplant/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Vegan Turkish Baked Eggplant</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 small eggplants, sliced into 1/4-inch rounds\n\n\n  salt to taste\n\n\n¼ cup extra-virgin olive oil\n\n\n1 large onion, chopped\n\n\n1  red bell pepper, seeded and chopped\n\n\n1 clove garlic, crushed\n\n\n2 ounces oil-packed sun-dried tomatoes, drained and chopped\n\n\n2 tablespoons tomato paste\n\n\n1 teaspoon red wine vinegar\n\n\n½ teaspoon white sugar\n\n\n  ground black pepper to taste\n\n\n2 tablespoons toasted pine nuts, or to taste\n\n\n2 tablespoons fresh cilantro leaves, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 small eggplants, sliced into 1/4-inch rounds\n\n\n  salt to taste\n\n\n¼ cup extra-virgin olive oil\n\n\n1 large onion, chopped\n\n\n1  red bell pepper, seeded and chopped\n\n\n1 clove garlic, crushed\n\n\n2 ounces oil-packed sun-dried tomatoes, drained and chopped\n\n\n2 tablespoons tomato paste\n\n\n1 teaspoon red wine vinegar\n\n\n½ teaspoon white sugar\n\n\n  ground black pepper to taste\n\n\n2 tablespoons toasted pine nuts, or to taste\n\n\n2 tablespoons fresh cilantro leaves, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place eggplants in a colander. Sprinkle with salt and leave to drain for 30 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a baking pan."},{"recipe_directions":"Heat 1 tablespoon olive oil in a skillet. Add onion, red bell pepper, and garlic; cook until onion is soft, about 10 minutes. Stir in sun-dried tomatoes, tomato paste, vinegar, sugar, and pepper. Remove from heat."},{"recipe_directions":"Pat the eggplant slices dry with paper towels and arrange in the prepared baking pan. Drop a teaspoonful of the tomato mixture onto each eggplant slice. Drizzle remaining olive oil over and around slices. Cover with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until eggplant slices are tender, 40 to 50 minutes. Garnish with pine nuts and cilantro leaves. Serve at room temperature."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n19g \nFat\n\n\n22g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641700-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -458,59 +783,55 @@
 Spinach and Halloumi Gozleme</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281886/spinach-and-halloumi-gozleme/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Spinach and Halloumi Gozleme</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"11 ounces Greek yogurt\n\n\n1 pinch salt\n\n\n3 cups self-rising flour\n\n\n1 drizzle extra-virgin olive oil\n\n\n¾ (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n1 clove garlic, minced\n\n\n  salt and ground black pepper to taste\n\n\n9 ounces grated halloumi cheese\n\n\n2 medium scallions, finely chopped\n\n\n½ teaspoon Italian seasoning\n\n\n1 tablespoon salted butter, melted\n\n\n1 tablespoon extra-virgin olive oil\n\n\n1 medium lemon, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '11 ounces Greek yogurt\n\n\n1 pinch salt\n\n\n3 cups self-rising flour\n\n\n1 drizzle extra-virgin olive oil\n\n\n¾ (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n1 clove garlic, minced\n\n\n  salt and ground black pepper to taste\n\n\n9 ounces grated halloumi cheese\n\n\n2 medium scallions, finely chopped\n\n\n½ teaspoon Italian seasoning\n\n\n1 tablespoon salted butter, melted\n\n\n1 tablespoon extra-virgin olive oil\n\n\n1 medium lemon, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place yogurt in a large bowl and stir in salt. Gradually add flour, a few tablespoons at a time, until you have a stiff dough. Turn dough out onto a floured work surface and knead with your hands until soft and slightly tacky. Place the dough in a lightly floured bowl, cover with a clean tea towel, and allow to stand for at least 30 minutes."},{"recipe_directions":"Meanwhile, warm a frying pan over medium heat. Add a drizzle of oil, then add spinach, garlic, salt, and pepper. Cook and stir, about 5 minutes. Take off of the heat and allow to cool, about 10 minutes. Stir in halloumi, scallions, and Italian seasoning."},{"recipe_directions":"Divide the dough into 4 equal balls. Roll out each ball into a 10- to 12-inch circle on a floured surface. Place some spinach filling on one side of each circle and fold the dough over. Seal the edges with a fork."},{"recipe_directions":"Heat a large frying pan over medium-low heat. Combine melted butter and 1 tablespoon oil in a bowl, and brush onto both sides of the gozleme. Cook each gozleme in the hot pan until golden, 3 to 5 minutes per side."},{"recipe_directions":"Cut each gozleme into 4 slices and finish with several squeezes of lemon juice."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"724\nCalories\n\n\n33g \nFat\n\n\n80g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641705-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YNHLOR12gl546cR-283yeGodGoo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3061305-e2181701dc124665a0b6cd1061ccb6da.jpg"
@@ -521,59 +842,55 @@
 Meze Fava Beans</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259124/meze-fava-beans/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Meze Fava Beans</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n½  onion, chopped\n\n\n1 ½ pounds fresh fava beans, shelled \n\n\n2 tablespoons water\n\n\n1 teaspoon all-purpose flour\n\n\n1 cup boiling water\n\n\n1 teaspoon lemon juice\n\n\n½ teaspoon white sugar\n\n\n  salt to taste\n\n\n½ cup chopped fresh dill"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n½  onion, chopped\n\n\n1 ½ pounds fresh fava beans, shelled \n\n\n2 tablespoons water\n\n\n1 teaspoon all-purpose flour\n\n\n1 cup boiling water\n\n\n1 teaspoon lemon juice\n\n\n½ teaspoon white sugar\n\n\n  salt to taste\n\n\n½ cup chopped fresh dill'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a skillet over medium heat. Add onions; cook and stir until fragrant, about 1 minute. Toss in fava beans and cook until slightly tender, about 2 minutes."},{"recipe_directions":"Mix 2 tablespoons water and flour together in a bowl; pour into the fava bean mixture. Add 1 cup water, lemon juice, sugar, and salt. Cover and bring to a boil. Reduce heat to low and simmer until fava beans are very tender, about 5 minutes."},{"recipe_directions":"Stir dill into the fava bean mixture; continue simmering until flavors are combined, about 2 minutes. Let cool to room temperature."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n4g \nFat\n\n\n34g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641710-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BFPMGaD8X4QjzB6iBJDGjzYX9nk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/5841438-c6b17b068cac400cacaf150bc313f33e.jpg"
@@ -586,59 +903,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268490/easy-5-ingredient-pumpkin-soup/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Easy 5-Ingredient Pumpkin Soup</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds pumpkin, peeled and cubed\n\n\n4 cups chicken broth, divided\n\n\n1 teaspoon sugar, or more to taste\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 (5.3 ounce) container Greek yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds pumpkin, peeled and cubed\n\n\n4 cups chicken broth, divided\n\n\n1 teaspoon sugar, or more to taste\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 (5.3 ounce) container Greek yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine pumpkin and 1/3 of the chicken broth in a deep pan over medium-low heat. Simmer, covered, until pumpkin is soft, about 15 minutes."},{"recipe_directions":"Remove from heat and puree with an immersion blender. Add remaining chicken broth, sugar, salt, and pepper. Cook until flavors combine, about 5 minutes."},{"recipe_directions":"Ladle into bowls and serve with a dollop of Greek yogurt."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Vegetable Soup Recipes"},{"recipe_tags":"Squash Soup Recipes"},{"recipe_tags":"Pumpkin Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n4g \nFat\n\n\n18g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641714-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2c36Q34Z3H1Mm_lBqDlez1ehQ70=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/808824-6b83cbae6fa64d5a8ac872765f2edafb.jpg"
@@ -649,59 +962,55 @@
 Turkish Stuffed Flatbread (Gozleme)</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/284373/turkish-stuffed-flatbread-gozleme/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Turkish Stuffed Flatbread (Gozleme)</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup lukewarm water\n\n\n1 teaspoon butter-flavored shortening\n\n\n½ teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n2 ⅓ cups bread flour\n\n\n1 teaspoon yeast"},{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 tablespoon butter\n\n\n½ medium onion, chopped\n\n\n½ teaspoon salt\n\n\n1 ½ cups frozen chopped spinach - thawed, drained, and squeezed dry\n\n\n½ teaspoon garlic, minced\n\n\n6 tablespoons grated Parmesan cheese\n\n\n2 tablespoons olive oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup lukewarm water\n\n\n1 teaspoon butter-flavored shortening\n\n\n½ teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n2 ⅓ cups bread flour\n\n\n1 teaspoon yeast'}, {'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 tablespoon butter\n\n\n½ medium onion, chopped\n\n\n½ teaspoon salt\n\n\n1 ½ cups frozen chopped spinach - thawed, drained, and squeezed dry\n\n\n½ teaspoon garlic, minced\n\n\n6 tablespoons grated Parmesan cheese\n\n\n2 tablespoons olive oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place lukewarm water, shortening, salt, sugar, bread flour, and yeast in a bread machine in the order listed. Run Dough cycle. Remove dough from the machine at the kneading, 20 minutes."},{"recipe_directions":"Divide dough into 5 pieces and roll them into balls. Place on a floured surface, cover with a slightly damp cloth, and leave to rest for 20 to 30 minutes."},{"recipe_directions":"Meanwhile, melt oil and butter for filling in a medium skillet over medium heat. Add onion and salt and cook, stirring frequently, until onions soften, about 10 minutes. Add spinach and garlic and cook for another 3 to 5 minutes. Remove from the heat."},{"recipe_directions":"Roll dough circles into flat rounds, 5 to 6 inches in diameter. Fill one half each circle with spinach mixture, sprinkle with Parmesan cheese, then fold the other half over and seal the edges."},{"recipe_directions":"Preheat a griddle or large frying pan over medium-high heat. Brush one side of each gozleme with oil and place on the hot pan; cook until base is golden, 2 to 3 minutes. Brush top side with olive oil, turn, and cook until golden, another 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n12g \nFat\n\n\n38g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641718-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -715,59 +1024,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273452/turkish-flatbread/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Turkish Flatbread</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 2 hrs 50 mins\n\n\nServings:\n40 \n\n\nYield:\n40 small flatbreads"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 teaspoons active dry yeast\n\n\n1 teaspoon white sugar\n\n\n1 cup warm water\n\n\n1 cup all-purpose flour"},{"recipe_ingredients":"7 cups all-purpose flour\n\n\n2 cups lukewarm water\n\n\n2 tablespoons lukewarm water\n\n\n6 tablespoons olive oil\n\n\n2 teaspoons salt\n\n\n1 teaspoon butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 teaspoons active dry yeast\n\n\n1 teaspoon white sugar\n\n\n1 cup warm water\n\n\n1 cup all-purpose flour'}, {'recipe_ingredients': '7 cups all-purpose flour\n\n\n2 cups lukewarm water\n\n\n2 tablespoons lukewarm water\n\n\n6 tablespoons olive oil\n\n\n2 teaspoons salt\n\n\n1 teaspoon butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve yeast and sugar in warm water. Let stand in a warm place until frothy, about 10 minutes. Stir in flour. Cover sponge with plastic wrap and let rise for 30 minutes."},{"recipe_directions":"Place flour in a large bowl and make a well in the center. Pour in sponge. Add 2 cups plus 2 tablespoons lukewarm water, olive oil, and salt. Gradually work in the flour to make a soft and sticky dough."},{"recipe_directions":"Knead the dough on a floured surface for 15 minutes. Grease a large bowl with butter and add dough. Cover and let rise until doubled, about 1 hour."},{"recipe_directions":"Divide dough into quarters. Cut each quarter into 10 pieces; shape each piece into a ball. Cover balls of dough and let rest for 30 minutes."},{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Line baking sheets with parchment paper."},{"recipe_directions":"Shape each ball of dough into a circle by flattening dough and stretching it. Arrange 2 inches apart on the baking sheets."},{"recipe_directions":"Bake in the preheated oven until puffed up and golden, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n2g \nFat\n\n\n20g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641722-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -779,59 +1084,55 @@
 Instant Pot® Turkish Red Lentil Soup with Aleppo Pepper Oil</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273419/instant-pot-turkish-red-lentil-soup-with-aleppo-pepper-oil/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Instant Pot® Turkish Red Lentil Soup with Aleppo Pepper Oil</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons salted butter\n\n\n1 medium yellow onion, cut into 1/2-inch dice\n\n\n1 clove garlic, finely grated\n\n\n1 teaspoon olive oil\n\n\n1 tablespoon sweet paprika\n\n\n½ teaspoon ground cumin\n\n\n1 tablespoon tomato paste\n\n\n1 cup red lentils\n\n\n2 tablespoons long-grain white rice\n\n\n1 pinch kosher salt, or to taste\n\n\n5 cups water"},{"recipe_ingredients":"3 tablespoons extra-virgin olive oil\n\n\n2 teaspoons Aleppo pepper"},{"recipe_ingredients":"1 tablespoon chopped fresh mint, or to taste\n\n\n1  lemon, cut into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons salted butter\n\n\n1 medium yellow onion, cut into 1/2-inch dice\n\n\n1 clove garlic, finely grated\n\n\n1 teaspoon olive oil\n\n\n1 tablespoon sweet paprika\n\n\n½ teaspoon ground cumin\n\n\n1 tablespoon tomato paste\n\n\n1 cup red lentils\n\n\n2 tablespoons long-grain white rice\n\n\n1 pinch kosher salt, or to taste\n\n\n5 cups water'}, {'recipe_ingredients': '3 tablespoons extra-virgin olive oil\n\n\n2 teaspoons Aleppo pepper'}, {'recipe_ingredients': '1 tablespoon chopped fresh mint, or to taste\n\n\n1  lemon, cut into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot®) and select Saute function. Melt butter until foamy. Add onion and cook until soft and translucent, about 5 minutes. Add garlic and cook until fragrant, about 30 seconds. Push onion and garlic to one side of the pot and add olive oil. Toast paprika and cumin for 30 seconds. Stir in tomato paste. Add lentils, rice, and salt. Pour in water and turn off Saute function."},{"recipe_directions":"Close and lock the lid. Select high pressure according to manufacturer's instructions; set timer for 3 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, about 5 minutes. Release remaining pressure using the quick-release method, about 5 minutes. Unlock and remove the lid. Adjust seasoning to taste."},{"recipe_directions":"Meanwhile, heat extra-virgin olive oil in a small skillet over medium heat, swirling to coat the entire skillet. Add Aleppo pepper and cook until a few bubbles appear and the oil is bright red. Remove from heat and set aside."},{"recipe_directions":"Ladle soup into bowls, drizzle with Aleppo pepper oil, sprinkle with fresh mint, and serve with lemon wedges."},{"recipe_directions":"When I'm feeling lazy, I just sprinkle the Aleppo pepper directly into the soup--but do it gradually. It has more of a kick than you might expect."},{"recipe_directions":"If you can't find aleppo at a local Penzey's(R), you can order it online or substitute with an additional teaspoon of paprika and 1/2 teaspoon red pepper flakes."},{"recipe_directions":"The soup can be made vegan by substituting olive oil for the butter."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"387\nCalories\n\n\n21g \nFat\n\n\n37g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641726-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G0w4hlBo7T605A07JEiTDx26yFc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/251029-a87f3a711cd244909a407c5b958cd0e6.jpg"
@@ -844,59 +1145,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/200196/zucchini-with-dill-weed-and-garlic-yogurt-sauce/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Zucchini with Dill Weed and Garlic-Yogurt Sauce</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n1  onion, finely chopped\n\n\n1 teaspoon white sugar\n\n\n4  zucchini, chopped\n\n\n1 cup chopped fresh dill weed\n\n\n¼ cup uncooked long grain white rice\n\n\n½ cup water\n\n\n  salt and pepper to taste\n\n\n2 cups plain yogurt\n\n\n2 cloves garlic, crushed\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n1  onion, finely chopped\n\n\n1 teaspoon white sugar\n\n\n4  zucchini, chopped\n\n\n1 cup chopped fresh dill weed\n\n\n¼ cup uncooked long grain white rice\n\n\n½ cup water\n\n\n  salt and pepper to taste\n\n\n2 cups plain yogurt\n\n\n2 cloves garlic, crushed\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a skillet over medium heat; cook and stir the onion until translucent, about 5 minutes. Stir in the sugar, then add the chopped zucchini, dill, and rice. Cook and stir until the zucchini is softened, about 5 minutes. Pour in the water, sprinkle with salt and pepper, and bring the mixture to a boil. Reduce the heat and simmer the mixture until the rice is cooked, about 20 minutes. Turn off the heat, and let the mixture cool to lukewarm."},{"recipe_directions":"Make a sauce by mixing the yogurt, garlic, and salt in a bowl. Serve over the lukewarm zucchini and rice."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"292\nCalories\n\n\n16g \nFat\n\n\n30g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641731-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NhBj2Emp72OrKdz1T4-VWGHbNbk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2373021-ac5c99507a0f41ec8b469aa684ea47bf.jpg"
@@ -909,59 +1206,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242255/rose-water-turkish-delight/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Rose Water Turkish Delight</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n30 \n\n\nYield:\n30 squares"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups white sugar\n\n\n1 cup water\n\n\n3 (.25 ounce) envelopes unflavored gelatin\n\n\n2 teaspoons rose water\n\n\n1 dash red food coloring, or desired amount\n\n\n1 cup confectioners' sugar"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "cooking spray\n\n\n2 cups white sugar\n\n\n1 cup water\n\n\n3 (.25 ounce) envelopes unflavored gelatin\n\n\n2 teaspoons rose water\n\n\n1 dash red food coloring, or desired amount\n\n\n1 cup confectioners' sugar"}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a 9-inch cake pan with enough aluminum foil to have it hanging over the sides; spray with non-stick cooking spray and set aside."},{"recipe_directions":"Stir sugar, water, and gelatin together in a large pot; bring to a boil, reduce heat to medium, and cook at a simmer, stirring constantly, for 20 minutes."},{"recipe_directions":"Stir rose water and food coloring into the mixture in the pot; pour directly into the prepared cake pan."},{"recipe_directions":"Cover pan with plastic wrap and refrigerate 8 hours to overnight."},{"recipe_directions":"Lightly dust a cutting board with some of the confectioners' sugar. Invert cake pan onto the cutting board. Gently peel aluminum foil from the surface of the gelatin. Cut gelatin into squares."},{"recipe_directions":"Spread confectioners' sugar into a wide, shallow dish. Roll gelatin squares in the sugar to coat."},{"recipe_directions":"Rose water can be found at specialty food stores, online, or can be made."},{"recipe_directions":"When cooking the jelly, it may take on a slightly burnt color. This is natural and and will not effect flavor. It does boil over easily, so pick a pan that has plenty of extra space."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"70\nCalories\n\n\n17g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641734-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ji0E0iTC2ymCYjAAgNxoWN2NwXU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1499x0:1501x2):format(webp)/4515696-5dd1ef720a244f48b95d1749875e1974.jpg"
@@ -974,59 +1267,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255876/rose-water-gelees/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Rose Water Gelees</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n13 mins\n\n\nAdditional Time:\n 12 hrs 15 mins\n\n\nTotal Time:\n 12 hrs 38 mins\n\n\nServings:\n64 \n\n\nYield:\n64 1-inch squares"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil, or to taste\n\n\n1 ⅔ cups cold water, divided\n\n\n7 teaspoons unflavored gelatin\n\n\n2 ⅓ cups white sugar\n\n\n3 tablespoons strained fresh lemon juice\n\n\n4 teaspoons rose water\n\n\n2 drops red food coloring\n\n\n1 tablespoon cornstarch, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil, or to taste\n\n\n1 ⅔ cups cold water, divided\n\n\n7 teaspoons unflavored gelatin\n\n\n2 ⅓ cups white sugar\n\n\n3 tablespoons strained fresh lemon juice\n\n\n4 teaspoons rose water\n\n\n2 drops red food coloring\n\n\n1 tablespoon cornstarch, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease an 8-inch square pan with vegetable oil."},{"recipe_directions":"Place 2/3 cup water in a small bowl. Sprinkle gelatin on top; let stand until softened, about 15 minutes."},{"recipe_directions":"Combine remaining 1 cup water, sugar, and lemon juice in a saucepan over medium heat; bring to a boil, stirring until sugar dissolves. Increase heat and boil syrup, covered, for 3 minutes."},{"recipe_directions":"Uncover saucepan and attach a candy thermometer to the side; continue cooking syrup until the temperature reaches 238 degrees F (114 degrees C), about 5 minutes. Remove from heat; stir in gelatin mixture carefully until completely dissolved. Mix in rose water and red food coloring."},{"recipe_directions":"Pour syrup into the greased pan. Let stand at room temperature until gelled, about 4 hours. Cover with plastic wrap and chill, 8 hours to overnight."},{"recipe_directions":"Cut gelled mixture into 1-inch squares. Dust with cornstarch."},{"recipe_directions":"Rose water is available at Middle Eastern and specialty food stores."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"30\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641738-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fdACfKg9jE1AZEfdpy2U_5EB-Y4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4131621-d236342a59bf4b80a395873fa0d2db94.jpg"
@@ -1039,59 +1328,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263998/vegan-turkish-red-lentil-soup/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Vegan Turkish Red Lentil Soup</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n2 large onions, chopped\n\n\n2 teaspoons salt, divided\n\n\n2 sprigs fresh thyme\n\n\n8 cloves garlic, minced\n\n\n2 teaspoons ground cumin\n\n\n2  Turkish bay leaves\n\n\n6 cups vegetable broth\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n2 cups red lentils, picked over and rinsed\n\n\n1 ½ tablespoons tomato paste\n\n\n2 tablespoons dried oregano\n\n\n1 teaspoon ground black pepper\n\n\n2 cups water\n\n\n4 tablespoons chopped flat-leaf parsley\n\n\n1  lemon, sliced into wedges"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n2 large onions, chopped\n\n\n2 teaspoons salt, divided\n\n\n2 sprigs fresh thyme\n\n\n8 cloves garlic, minced\n\n\n2 teaspoons ground cumin\n\n\n2  Turkish bay leaves\n\n\n6 cups vegetable broth\n\n\n1 (28 ounce) can crushed tomatoes\n\n\n2 cups red lentils, picked over and rinsed\n\n\n1 ½ tablespoons tomato paste\n\n\n2 tablespoons dried oregano\n\n\n1 teaspoon ground black pepper\n\n\n2 cups water\n\n\n4 tablespoons chopped flat-leaf parsley\n\n\n1  lemon, sliced into wedges'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a heavy saucepan over medium heat. Add onions and 1 teaspoon salt; cook, stirring occasionally, until softened, about 8 minutes. Add thyme sprigs, garlic, cumin, and bay leaves; cook, stirring, for 1 minute more."},{"recipe_directions":"Add vegetable broth, tomatoes, red lentils, tomato paste, oregano, remaining salt, and pepper to the saucepan. Cover partially and simmer, stirring occasionally, until lentils are very soft and falling apart, 30 to 45 minutes."},{"recipe_directions":"Discard thyme sprigs and bay leaves. Let soup cool briefly, about 10 minutes. Transfer 4 cups of soup to a blender; blend until smooth. Mix back into the saucepan. Stir in water. Ladle soup into bowls; garnish with chopped parsley and a squirt of lemon juice."},{"recipe_directions":"Soup can be made 3 days ahead. Cooled it uncovered. Then it can be chilled, covered."},{"recipe_directions":"Substitute 1 California bay leaf for the Turkish bay leaves if preferred."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"285\nCalories\n\n\n6g \nFat\n\n\n47g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641742-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rtvrRGA5HiwjUSNw5tKwXKwDkGU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3355889-f80186ccfed34af3a3b70b13a66d9c08.jpg"
@@ -1102,59 +1387,55 @@
 Tulumba (Deep-Fried Pastry with Syrup)</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283786/tulumba-deep-fried-pastry-with-syrup/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Tulumba (Deep-Fried Pastry with Syrup)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs 30 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n25 \n\n\nYield:\n25 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n6 tablespoons vegetable oil\n\n\n3 ¼ cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n5 large eggs\n\n\n2 cups vegetable oil for frying"},{"recipe_ingredients":"5 cups white sugar\n\n\n2 ½ cups water"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n6 tablespoons vegetable oil\n\n\n3 ¼ cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n5 large eggs\n\n\n2 cups vegetable oil for frying'}, {'recipe_ingredients': '5 cups white sugar\n\n\n2 ½ cups water'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring 2 cups of water and 6 tablespoons oil to a boil in a large pot over high heat. Remove from heat and stir in flour and baking powder until well combined. Allow to cool, 15 to 20 minutes."},{"recipe_directions":"Add eggs, one by one, and then beat with an electric mixer until mixture is smooth and homogeneous."},{"recipe_directions":"Meanwhile, prepare the syrup. Combine sugar and 2 cups water in a saucepan and bring to a boil over medium-high. Stir until sugar has dissolved. Remove from heat and let cool, at least 20 to 30 minutes."},{"recipe_directions":"While syrup cools, heat oil in a deep-fryer or large saucepan to 350 degrees F (175 degrees C)."},{"recipe_directions":"Spoon dough into a tulumba syringe or an icing bag with a special nozzle and pipe small portions of dough into the hot oil. You can also drop spoonfuls of dough into the hot oil, but then the tulumbas won't have the traditional shape. Work in batches and fry tulumbas until golden, 5 to 7 minutes. Remove to a paper towel-lined plate. Let cool, about 10 minutes. Transfer tulumbas to a bowl and pour cooled syrup on top. Allow to soak for at least 2 hours."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pastries"},{"recipe_tags":"Doughnuts"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"242\nCalories\n\n\n6g \nFat\n\n\n45g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641746-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LbCsG7XD_TxTSMp9VSmXbg7EefQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(663x0:665x2):format(webp)/8835352-884f282f60324a6ab8e7211b0ed8ebca.jpg"
@@ -1167,59 +1448,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282688/menemen/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Menemen</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon extra-virgin olive oil\n\n\n¼ cup chopped onion\n\n\n2 tablespoons diced red bell pepper\n\n\n2 tablespoons diced Aleppo chiles, or to taste\n\n\n½ teaspoon red pepper flakes\n\n\n1 teaspoon minced garlic\n\n\n¼ cup chopped tomato\n\n\n  salt and ground black pepper to taste\n\n\n3 large eggs, beaten\n\n\n1 tablespoon thinly sliced basil leaves\n\n\n1 tablespoon crumbled feta cheese"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon extra-virgin olive oil\n\n\n¼ cup chopped onion\n\n\n2 tablespoons diced red bell pepper\n\n\n2 tablespoons diced Aleppo chiles, or to taste\n\n\n½ teaspoon red pepper flakes\n\n\n1 teaspoon minced garlic\n\n\n¼ cup chopped tomato\n\n\n  salt and ground black pepper to taste\n\n\n3 large eggs, beaten\n\n\n1 tablespoon thinly sliced basil leaves\n\n\n1 tablespoon crumbled feta cheese'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Add onion, bell pepper, chiles, and red pepper flakes. Cook and stir until onions are soft and translucent, 5 to 6 minutes. Add garlic and cook until fragrant, about 1 minute. Add tomatoes, with their juices, and season with salt and pepper. Cook until tomatoes are softened, 4 to 6 minutes."},{"recipe_directions":"Add eggs to the skillet, tilting the skillet until eggs cover skillet completely. Do not mix. Cook until eggs are set, 3 to 5 minutes."},{"recipe_directions":"Top with basil and feta cheese."},{"recipe_directions":"You can substitute green bell peppers for the red, serrano chiles for the Aleppo peppers (since they can be hard to find), and cilantro or parsley for the basil."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"220\nCalories\n\n\n16g \nFat\n\n\n9g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641750-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CryFTJlhjjGUMoz5tllLyosAHIg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/4527286-ff82a01f3b6246ffbc7d3d93c9cff1ac.jpg"
@@ -1232,59 +1509,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216186/pogaca-feta-dumplings/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Pogaca (Feta Dumplings)</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n20 \n\n\nYield:\n20 baked dumplings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ½ cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n½ cup canola oil\n\n\n¼ cup butter, melted\n\n\n1 cup plain yogurt\n\n\n3  beaten eggs\n\n\n1 tablespoon sour cream\n\n\n1 tablespoon white sugar\n\n\n1 ½ teaspoons salt\n\n\n1 cup crumbled feta cheese\n\n\n1 cup finely chopped fresh parsley\n\n\n1 tablespoon olive oil\n\n\n2 teaspoons paprika\n\n\n2  egg yolks\n\n\n2 tablespoons sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ½ cups all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n½ cup canola oil\n\n\n¼ cup butter, melted\n\n\n1 cup plain yogurt\n\n\n3  beaten eggs\n\n\n1 tablespoon sour cream\n\n\n1 tablespoon white sugar\n\n\n1 ½ teaspoons salt\n\n\n1 cup crumbled feta cheese\n\n\n1 cup finely chopped fresh parsley\n\n\n1 tablespoon olive oil\n\n\n2 teaspoons paprika\n\n\n2  egg yolks\n\n\n2 tablespoons sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Line a baking sheet with parchment paper. Mix the flour with baking soda in a bowl; set aside."},{"recipe_directions":"Mix the canola oil, butter, yogurt, eggs, sour cream, sugar, and salt together in a large mixing bowl until smooth. Gradually stir the flour mixture into the wet ingredients to form a soft dough. Knead and squeeze the dough in the bowl until it is no longer sticky, about 5 minutes. Stir the feta cheese, parsley, olive oil, and paprika together in a bowl with a fork to make a filling."},{"recipe_directions":"Make each dumpling by pinching off about 2 1/2 tablespoons of dough; roll into a ball about 1 3/4 inches across between your hands, and press it into a flat circle 3 inches across on your palm. Spoon 1 scant tablespoon of filling into the center of the circle. Bring the edges of the circle together over the filling, and pinch them together to make a fat, round little stuffed dumpling. Set the dumplings onto the parchment paper-lined baking sheet, seam sides down. Beat the egg yolks in a small bowl, and brush the pogaca tops with the egg yolk. Sprinkle each with about 1/4 teaspoon of sesame seeds."},{"recipe_directions":"Bake in the preheated oven until the tops are shiny, brown, and crackled, 20 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n12g \nFat\n\n\n19g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641753-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/A7iiQDxL_qmZWiV4AJPai7wHEkE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6250239-59ffd91bc23c4a40a97687a9bd4e36bb.jpg"
@@ -1297,59 +1570,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238582/carrots-and-lentils/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Carrots and Lentils</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons extra-virgin olive oil\n\n\n1  onion, thinly sliced\n\n\n1 clove garlic, minced\n\n\n1 pound carrots, cut into thin half-rounds\n\n\n1 tablespoon tomato paste\n\n\n½ teaspoon ground chile pepper\n\n\n¼ teaspoon sea salt\n\n\n3 cups water\n\n\n1 cup lentils\n\n\n  salt and freshly ground black pepper to taste\n\n\n¼ cup Greek yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons extra-virgin olive oil\n\n\n1  onion, thinly sliced\n\n\n1 clove garlic, minced\n\n\n1 pound carrots, cut into thin half-rounds\n\n\n1 tablespoon tomato paste\n\n\n½ teaspoon ground chile pepper\n\n\n¼ teaspoon sea salt\n\n\n3 cups water\n\n\n1 cup lentils\n\n\n  salt and freshly ground black pepper to taste\n\n\n¼ cup Greek yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat; cook and stir onion until lightly browned, 5 to 10 minutes. Add garlic; cook and stir until fragrant, about 2 minutes. Stir carrots, tomato paste, ground chile pepper, and sea salt into onion mixture; cook and stir until heated through, about 2 minutes. Remove skillet from heat."},{"recipe_directions":"Combine water and lentils in a saucepan and bring to a boil. Cover saucepan, reduce heat to medium-low, and simmer for 30 minutes. Remove lid, increase heat to medium-high, and stir in carrot-onion mixture; cook until liquid is almost all evaporated, about 2 minutes more. Season carrots and lentils with salt and pepper and cool to room temperature."},{"recipe_directions":"Serve carrots and lentils with a spoonful of Greek yogurt."},{"recipe_directions":"Vegetable broth can be substituted for water, if desired."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n12g \nFat\n\n\n47g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641757-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4qVXU8K2AoL-wj02XtVB3BUnrwE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1033809-b2f924a91fda40e8ada9b8b32f530367.jpg"
@@ -1362,59 +1631,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215594/lahmacun-turkish-pizza/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Lahmacun Turkish Pizza</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 2 hrs\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n1 day 1 hr\n\n\nTotal Time:\n1 day 3 hrs 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 individual pizzas"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon chopped garlic\n\n\n1  yellow onion, chopped\n\n\n3 tablespoons chopped fresh basil\n\n\n½ cup chopped fresh parsley\n\n\n2 tablespoons chopped fresh mint\n\n\n½ teaspoon paprika\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon ground coriander seed\n\n\n½ cup green bell pepper, diced\n\n\n½ cup red bell pepper, diced\n\n\n½  lemon, juiced\n\n\n4 teaspoons olive oil\n\n\n4  roma (plum) tomatoes, halved\n\n\n1 pound lean ground lamb\n\n\n6 tablespoons double concentrated tomato paste\n\n\n  cayenne pepper to taste\n\n\n  salt to taste"},{"recipe_ingredients":"3 ¼ teaspoons active dry yeast\n\n\n½ teaspoon white sugar\n\n\n1 cup warm water (110 degrees F/45 degrees C)\n\n\n5 cups all-purpose flour\n\n\n2 teaspoons salt\n\n\n¼ cup vegetable oil\n\n\n½ cup water"},{"recipe_ingredients":"1 cup plain yogurt\n\n\n½ teaspoon chopped fresh parsley\n\n\n¼ teaspoon crushed garlic\n\n\n  salt and ground black pepper to taste"},{"recipe_ingredients":"1 cup shredded green cabbage\n\n\n1 cup shredded red cabbage"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon chopped garlic\n\n\n1  yellow onion, chopped\n\n\n3 tablespoons chopped fresh basil\n\n\n½ cup chopped fresh parsley\n\n\n2 tablespoons chopped fresh mint\n\n\n½ teaspoon paprika\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon ground coriander seed\n\n\n½ cup green bell pepper, diced\n\n\n½ cup red bell pepper, diced\n\n\n½  lemon, juiced\n\n\n4 teaspoons olive oil\n\n\n4  roma (plum) tomatoes, halved\n\n\n1 pound lean ground lamb\n\n\n6 tablespoons double concentrated tomato paste\n\n\n  cayenne pepper to taste\n\n\n  salt to taste'}, {'recipe_ingredients': '3 ¼ teaspoons active dry yeast\n\n\n½ teaspoon white sugar\n\n\n1 cup warm water (110 degrees F/45 degrees C)\n\n\n5 cups all-purpose flour\n\n\n2 teaspoons salt\n\n\n¼ cup vegetable oil\n\n\n½ cup water'}, {'recipe_ingredients': '1 cup plain yogurt\n\n\n½ teaspoon chopped fresh parsley\n\n\n¼ teaspoon crushed garlic\n\n\n  salt and ground black pepper to taste'}, {'recipe_ingredients': '1 cup shredded green cabbage\n\n\n1 cup shredded red cabbage'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium-high heat. Combine the garlic, onion, basil, parsley, mint, paprika, cumin, coriander, diced bell peppers, lemon juice, and olive oil in a food processor. Pulse the vegetables until finely chopped. Add the halved tomatoes and process until the mixture is a thick puree."},{"recipe_directions":"Place the lamb in the preheated skillet and reduce the heat to medium. Add the puree and the tomato paste and mix well. Cook and stir until the lamb is cooked through, 10 to 15 minutes. Stir in cayenne pepper and salt to taste. Transfer the mixture to a shallow baking dish to cool to room temperature. Cover with plastic wrap and refrigerate overnight."},{"recipe_directions":"Dissolve the yeast and sugar in 1 cup warm water. Combine the flour and salt in a mixing bowl and stir well. Add the vegetable oil and 1/2 cup water to the yeast mixture and pour it over the flour. Use your hands to mix the dough. Turn the dough out onto a lightly floured surface and knead until smooth and elastic, about 8 minutes."},{"recipe_directions":"Shape the dough into a ball and transfer to an oiled bowl. Cover with a wet towel and let rise in a warm place until doubled in bulk, about 1 hour. Remove the lamb sauce from the refrigerator and allow it to come up to room temperature. Prepare the garlic sauce: combine the yogurt, parsley, crushed garlic, and salt and pepper to taste. Stir well and set aside."},{"recipe_directions":"Punch the dough down, transfer it to a floured work surface, and cut the dough into 10 portions. Shape each portion into a round. Flatten each round with your hand; use a rolling pin to roll each piece into a 10-inch circle. The dough should be thin, like a crepe. Place the rounds on parchment paper."},{"recipe_directions":"Preheat an oven to 500 degrees F (260 degrees C)."},{"recipe_directions":"Stir the lamb sauce and then spoon it onto a dough round. Spread it thinly to the edges and press down lightly so it sticks to the dough. Bake pizzas on parchment paper-lined baking sheets on the lowest oven rack until the edges are a light tan color, 8 to 10 minutes."},{"recipe_directions":"Place on a wire rack to cool. The pizzas can be stored in an airtight container in the refrigerator for three days or in the freezer for three months. To reheat, place the pizzas in a 350 degree F oven (175 degrees C) for 8 minutes."},{"recipe_directions":"To assemble the lahmacun, drizzle with garlic sauce, top with shredded cabbage, and roll up to eat. See the Cook's Notes for other garnish ideas."},{"recipe_directions":"Additional condiments include chili sauce, harissa, or Tabasco. In place of the cabbage, you can combine 1 cup lettuce, thinly sliced tomatoes, cucumbers, and red onion."},{"recipe_directions":"To assemble, arrange cabbage, lettuce, cucumbers, tomatoes, or onion down one side of the pizza. Drizzle with garlic sauce and hot sauce, and roll up. Eat and enjoy--but watch out for the drip. You won't want to miss a bite!"},{"recipe_directions":"If you can't find ground lamb in your area, you may substitute ground beef."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Dutch"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"480\nCalories\n\n\n20g \nFat\n\n\n58g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641760-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MXuM-_Xxj-XC-SWM2ZSFTqK5Xj4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3777320-74a3f00ee0ad4492be6671bd690bc14b.jpg"
@@ -1427,59 +1692,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242237/easy-turkish-delight/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Easy Turkish Delight</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n35 \n\n\nYield:\n35 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n2 cups white sugar\n\n\n¼ cup unflavored gelatin\n\n\n1 ½ cups confectioners' sugar, sifted\n\n\n⅔ cup corn flour\n\n\n¼ teaspoon cream of tartar\n\n\n½ teaspoon rose water\n\n\n3 drops pink food coloring, or as desired\n\n\n¾ cup confectioners' sugar, sifted"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "3 cups water\n\n\n2 cups white sugar\n\n\n¼ cup unflavored gelatin\n\n\n1 ½ cups confectioners' sugar, sifted\n\n\n⅔ cup corn flour\n\n\n¼ teaspoon cream of tartar\n\n\n½ teaspoon rose water\n\n\n3 drops pink food coloring, or as desired\n\n\n¾ cup confectioners' sugar, sifted"}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, white sugar, and gelatin in a large microwave-safe bowl; heat in microwave on high for 7 minutes. Stir sugar mixture and cook in microwave for 7 minutes more."},{"recipe_directions":"Mix 1 1/2 cups confectioners' sugar, corn flour, and cream of tartar together in a bowl; stir into sugar mixture. Heat mixture in microwave on high for 6 minutes more. Stir rose water and food coloring into mixture."},{"recipe_directions":"Lightly grease a 7x11-inch baking dish. Pour mixture into the greased dish; refrigerate until firm, about 30 minutes."},{"recipe_directions":"Cut Turkish delight into small squares using a wet knife."},{"recipe_directions":"Place 3/4 cup confectioners' sugar in a bowl. Roll Turkish delight in the confectioners' sugar until evenly coated. Store in an airtight container in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"87\nCalories\n\n\n22g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641765-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tvemias26LMrgONRtCSOlL2vMsU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7772384-d3b63a06db7e4e2c80f793f024cebb49.jpg"
@@ -1490,59 +1751,55 @@
 Easy Lamb Gyros</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285839/easy-lamb-gyros/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Easy Lamb Gyros</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n3 pounds ground lamb\n\n\n½ cup Greek seasoning\n\n\n1 large egg\n\n\n12 (6 inch) pita breads, warmed\n\n\n1 head iceberg lettuce, finely shredded\n\n\n5 medium Roma tomatoes, diced\n\n\n1 medium red onion, diced\n\n\n½ cup tzatziki sauce, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n3 pounds ground lamb\n\n\n½ cup Greek seasoning\n\n\n1 large egg\n\n\n12 (6 inch) pita breads, warmed\n\n\n1 head iceberg lettuce, finely shredded\n\n\n5 medium Roma tomatoes, diced\n\n\n1 medium red onion, diced\n\n\n½ cup tzatziki sauce, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 275 degrees F (135 degrees C). Spray a large loaf pan with cooking spray."},{"recipe_directions":"Combine lamb, Greek seasoning, and egg in a bowl. Mix until ingredients are very well combined (overmixing is preferable here.) Firmly press mixture into the prepared loaf pan, making sure there are no air pockets under the meat. Cover with foil."},{"recipe_directions":"Cook in the preheated oven until an instant-read thermometer inserted into the center reads at least 160 degrees F (70 degrees C), about 2 hours."},{"recipe_directions":"Remove from the oven and let rest, covered, until all the grease on top is absorbed, 15 to 20 minutes."},{"recipe_directions":"Remove meat from the pan and cut into thin slices."},{"recipe_directions":"Load meat into the center of warmed pitas. Top with lettuce, tomatoes, onion, and tzatziki sauce. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sandwich Recipes"},{"recipe_tags":"Gyro Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"402\nCalories\n\n\n25g \nFat\n\n\n34g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641769-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pN-40v0vjjZQH8_H6Awf2c5CE6o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6555810-lamb-borek-Chef-John-1x1-1-70c930804c034bd89fc5e1690979db01.jpg"
@@ -1556,59 +1813,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272905/lamb-borek/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Lamb Börek</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9-inch pie"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 large onion, diced\n\n\n2 teaspoons salt\n\n\n2 pounds ground lamb\n\n\n4 cloves garlic, minced (Optional)\n\n\n2 tablespoons currants\n\n\n3 tablespoons toasted pine nuts\n\n\n2 teaspoons ground cumin\n\n\n1 teaspoon ground coriander\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon paprika\n\n\n1 teaspoon freshly ground black pepper\n\n\n½ teaspoon cayenne pepper\n\n\n¼ teaspoon allspice\n\n\n1 ½ cups tomato sauce\n\n\n¼ cup water"},{"recipe_ingredients":"1 large egg\n\n\n3 tablespoons full-fat plain Greek yogurt\n\n\n2 tablespoons water\n\n\n2 tablespoons butter, melted\n\n\n12 sheets frozen phyllo dough, thawed, or as needed\n\n\n2 teaspoons sesame seeds (Optional)"},{"recipe_ingredients":"½ cup plain Greek yogurt\n\n\n2 tablespoons very finely sliced mint leaves\n\n\n1 teaspoon lemon juice, or to taste\n\n\n1 clove garlic, crushed (Optional)\n\n\n1 teaspoon water, or as needed\n\n\n  salt to taste\n\n\n1 pinch cayenne pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 large onion, diced\n\n\n2 teaspoons salt\n\n\n2 pounds ground lamb\n\n\n4 cloves garlic, minced (Optional)\n\n\n2 tablespoons currants\n\n\n3 tablespoons toasted pine nuts\n\n\n2 teaspoons ground cumin\n\n\n1 teaspoon ground coriander\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon paprika\n\n\n1 teaspoon freshly ground black pepper\n\n\n½ teaspoon cayenne pepper\n\n\n¼ teaspoon allspice\n\n\n1 ½ cups tomato sauce\n\n\n¼ cup water'}, {'recipe_ingredients': '1 large egg\n\n\n3 tablespoons full-fat plain Greek yogurt\n\n\n2 tablespoons water\n\n\n2 tablespoons butter, melted\n\n\n12 sheets frozen phyllo dough, thawed, or as needed\n\n\n2 teaspoons sesame seeds (Optional)'}, {'recipe_ingredients': '½ cup plain Greek yogurt\n\n\n2 tablespoons very finely sliced mint leaves\n\n\n1 teaspoon lemon juice, or to taste\n\n\n1 clove garlic, crushed (Optional)\n\n\n1 teaspoon water, or as needed\n\n\n  salt to taste\n\n\n1 pinch cayenne pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a saucepan over medium-high heat. Add onion, salt, and lamb. Break up lamb into small crumbles. Cook, occasionally stirring, until most of the liquid evaporates, about 8 minutes. Toss in garlic, currants, pine nuts, cumin, coriander, cinnamon, paprika, black pepper, cayenne, and allspice. Cook and stir for 1 minute."},{"recipe_directions":"Pour tomato sauce into lamb mixture. Add water, stir, and reduce heat to medium. Cook until lamb mixture dries up and you can stir it without seeing liquid on the bottom of the pan, 20 to 30 minutes. Turn off the heat and let cool completely before using."},{"recipe_directions":"In the meantime, combine egg, yogurt, water, and butter in a bowl. Whisk together thoroughly."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Butter a round baking pan or sheet pan."},{"recipe_directions":"Place 2 sheets of phyllo on your work surface. Keep remaining sheets covered with a damp towel. Sprinkle some egg wash lightly on top and spread using a pastry brush. Layer on 2 more sheets, one at a time, brushing some more egg wash over each."},{"recipe_directions":"Line 1/3 of the lamb filling along one wide edge of the phyllo. Roll pastry up starting from filling side and place it against the edge of the pan. Brush more egg wash on top."},{"recipe_directions":"Shape and fill 2 more rolls with remaining phyllo, most of the egg wash, and filling. Wrap rolls along and inside the first one, filling the pan, and brush with egg wash. Sprinkle sesame seeds on top."},{"recipe_directions":"Bake in the preheated oven until browned and crisp, 35 to 40 minutes. Let cool for 15 minutes."},{"recipe_directions":"Combine yogurt, mint, lemon juice, and garlic for the yogurt sauce. Mix in enough water to achieve the desired consistency for dipping. Season with salt and cayenne. Cut börek into wedges and serve with yogurt sauce."},{"recipe_directions":"Save any extra phyllo, since the filling recipe above makes extra, and you can fold up some smaller, triangular böreks if you want."},{"recipe_directions":"Substitute chopped raisins for the currants if desired."},{"recipe_directions":"If you're not into lamb, this works perfectly with beef. Or try a spinach-cream cheese filling for a vegetarian version."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"449\nCalories\n\n\n28g \nFat\n\n\n24g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641774-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UlxjsgCdit7-A8kG9e6xwEH8gqs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1073764-3baa9c99c5ce4c7fb0fce5cd14eef682.jpg"
@@ -1621,59 +1874,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140037/manti-turkish-ravioli-with-yogurt-sauce/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Manti (Turkish 'Ravioli' with Yogurt Sauce)</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon salt\n\n\n1 teaspoon dried mint\n\n\n1 (9 ounce) package beef ravioli\n\n\n¼ cup butter\n\n\n1 teaspoon sweet paprika\n\n\n1 tablespoon minced garlic\n\n\n1 (8 ounce) container plain whole milk yogurt"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon salt\n\n\n1 teaspoon dried mint\n\n\n1 (9 ounce) package beef ravioli\n\n\n¼ cup butter\n\n\n1 teaspoon sweet paprika\n\n\n1 tablespoon minced garlic\n\n\n1 (8 ounce) container plain whole milk yogurt'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Add salt, mint, and ravioli. Cook for 3 to 5 minutes until ravioli float to the top, then drain and keep warm."},{"recipe_directions":"Meanwhile, melt butter in a small saucepan over low heat. Stir in paprika, and keep warm as ravioli are cooking. Stir garlic into yogurt."},{"recipe_directions":"To serve, place drained ravioli onto a serving platter or individual plates. Spoon yogurt on top of ravioli, then ladle paprika butter over top."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n17g \nFat\n\n\n27g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641777-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mkn6AIWDRXrrmUpvTM_RTsbEEcs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3588657-785e209b843f4268b8d179fb958e26b6.jpg"
@@ -1686,59 +1935,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218488/turkish-kebabs/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Turkish Kebabs</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 kebabs"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large onions, chopped\n\n\n2  garlic cloves, crushed\n\n\n½ cup olive oil\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon ground turmeric\n\n\n1 pinch curry powder\n\n\n1 teaspoon salt, plus more to taste\n\n\n1 pound beef flank steak, thinly sliced"},{"recipe_ingredients":"8 ounces sour cream\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon lemon juice\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 tablespoon chopped fresh dill\n\n\n1 clove garlic, crushed\n\n\n6  pita bread rounds"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large onions, chopped\n\n\n2  garlic cloves, crushed\n\n\n½ cup olive oil\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon ground turmeric\n\n\n1 pinch curry powder\n\n\n1 teaspoon salt, plus more to taste\n\n\n1 pound beef flank steak, thinly sliced'}, {'recipe_ingredients': '8 ounces sour cream\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon lemon juice\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 tablespoon chopped fresh dill\n\n\n1 clove garlic, crushed\n\n\n6  pita bread rounds'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make marinade: Place onions in a large ceramic bowl and crush with the bottom of a glass until juice is rendered and onions look translucent. Stir in garlic, olive oil, lemon juice, oregano, black pepper, turmeric, curry powder, and salt. Add beef and toss to coat. Cover the bowl with plastic wrap and marinate in the refrigerator, 8 hours to overnight."},{"recipe_directions":"Make sauce: Combine sour cream, olive oil, lemon juice, salt, black pepper, dill, and garlic in a medium bowl; mix until well combined. Cover the bowl with plastic wrap and refrigerate for 8 hours to overnight."},{"recipe_directions":"Preheat the oven's broiler and set the oven rack about 6 inches from the heat source."},{"recipe_directions":"Remove meat from marinade, brushing off extra onions; discard marinade. Spread meat on a baking sheet without overlapping. Season with salt."},{"recipe_directions":"Cook under the preheated broiler until meat is browned and crispy, about 3 minutes per side, turning halfway through cooking."},{"recipe_directions":"Divide meat between pita breads and drizzle with tzatziki sauce to serve."},{"recipe_directions":"You can use chicken instead of beef, too."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"512\nCalories\n\n\n34g \nFat\n\n\n36g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641780-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W7Mt3knBu9WaCOgFLLgGVO9ZsdU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/4529361-muhammara-roasted-pepper-walnut-spread-Chef-John-1x1-1-e8fe9baf4c374204b470d4846eba0d8b.jpg"
@@ -1752,59 +1997,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258803/muhammara-roasted-pepper-walnut-spread/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Muhammara (Roasted Pepper &amp; Walnut Spread)</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 tablespoons olive oil, divided\n\n\n1 ¼ cups raw walnut halves\n\n\n⅓ cup fresh bread crumbs\n\n\n1 cup fire-roasted red bell peppers - peeled, seeded, coarsely chopped\n\n\n2 garlic cloves, crushed\n\n\n2 tablespoons lemon juice\n\n\n2 teaspoons pomegranate molasses\n\n\n1 teaspoon salt, plus more if needed\n\n\n1 teaspoon paprika\n\n\n1 teaspoon Aleppo pepper flakes or other red pepper flakes, plus a pinch or so for garnish\n\n\n½ teaspoon cumin\n\n\n½ teaspoon cayenne pepper\n\n\n1 tablespoon chopped Italian parsley for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 tablespoons olive oil, divided\n\n\n1 ¼ cups raw walnut halves\n\n\n⅓ cup fresh bread crumbs\n\n\n1 cup fire-roasted red bell peppers - peeled, seeded, coarsely chopped\n\n\n2 garlic cloves, crushed\n\n\n2 tablespoons lemon juice\n\n\n2 teaspoons pomegranate molasses\n\n\n1 teaspoon salt, plus more if needed\n\n\n1 teaspoon paprika\n\n\n1 teaspoon Aleppo pepper flakes or other red pepper flakes, plus a pinch or so for garnish\n\n\n½ teaspoon cumin\n\n\n½ teaspoon cayenne pepper\n\n\n1 tablespoon chopped Italian parsley for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a skillet over medium heat. Add walnuts and drizzle with 1 tablespoon olive oil. Cook and stir frequently until walnuts smell toasted and are lightly browned, about 5 minutes. Remove from heat and transfer walnuts to a plate to cool. Reserve 2 or 3 to coarsely chop and use for garnish."},{"recipe_directions":"Place the skillet over medium heat; add 1 tablespoon olive oil. Sprinkle in bread crumbs; cook and stir frequently until crumbs turn golden brown, 3 or 4 minutes. Remove from heat and sprinkle onto plate with walnuts."},{"recipe_directions":"Place peppers in bowl of a food processor. Add walnuts, toasted bread crumbs, garlic, lemon juice, pomegranate molasses, salt, paprika, Aleppo pepper flakes, cumin, and cayenne pepper. Drizzle with remaining 2 tablespoons olive oil."},{"recipe_directions":"Pulse on and off, scraping mixture down occasionally, until mixture is fairly fine and smooth. Transfer to a bowl; cover and refrigerate until chilled, about 2 hours."},{"recipe_directions":"Transfer to a shallow serving bowl. Use the back of a spoon to swirl indentations on the surface to capture the garnishes. Garnish with reserved chopped walnuts, a drizzle of olive oil, pepper flakes, and chopped parsley."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"287\nCalories\n\n\n24g \nFat\n\n\n10g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641784-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/74qZ9TrVchrNl_dTiPEprpsISy0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/216234-a74e841f11e5437186b75ecbfb6b4a36.jpg"
@@ -1817,59 +2058,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/69274/turkish-fish-stew/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Turkish Fish Stew</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n1 ½ cups dry couscous\n\n\n2 tablespoons olive oil\n\n\n1 small white onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n2 cloves garlic, minced\n\n\n1 cup marinated artichoke hearts, liquid reserved\n\n\n2 teaspoons capers, liquid reserved\n\n\n12  small green olives\n\n\n1 (14.5 ounce) can chopped stewed tomatoes, drained\n\n\n2 tablespoons white wine (Optional)\n\n\n1 tablespoon lemon juice\n\n\n1 cup water\n\n\n2 teaspoons sumac powder\n\n\n1 ½ teaspoons crushed red pepper flakes\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon cumin\n\n\n1 teaspoon minced fresh ginger root\n\n\n  ground black pepper to taste\n\n\n1 pound tilapia fillets, cut into chunks"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups water\n\n\n1 ½ cups dry couscous\n\n\n2 tablespoons olive oil\n\n\n1 small white onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n2 cloves garlic, minced\n\n\n1 cup marinated artichoke hearts, liquid reserved\n\n\n2 teaspoons capers, liquid reserved\n\n\n12  small green olives\n\n\n1 (14.5 ounce) can chopped stewed tomatoes, drained\n\n\n2 tablespoons white wine (Optional)\n\n\n1 tablespoon lemon juice\n\n\n1 cup water\n\n\n2 teaspoons sumac powder\n\n\n1 ½ teaspoons crushed red pepper flakes\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon cumin\n\n\n1 teaspoon minced fresh ginger root\n\n\n  ground black pepper to taste\n\n\n1 pound tilapia fillets, cut into chunks'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium saucepan, bring 3 cups water to a boil and stir in couscous. Remove from heat, cover, and let sit 5 minutes."},{"recipe_directions":"Heat olive oil in a skillet over medium heat, and sauté onion and green pepper about 5 minutes, until tender. Mix in garlic, and continue to cook and stir, about 2 minutes. Mix in artichoke hearts with reserved liquid, capers with reserved liquid, and olives. Stir in tomatoes, wine, lemon juice, and 1 cup water (or enough to attain desired thickness). Season with sumac powder, red pepper, basil, cumin, ginger, and pepper."},{"recipe_directions":"Bring mixture to a boil and mix in fish chunks. Reduce heat and simmer 10 minutes, or until fish is easily flaked with a fork. Serve over couscous."},{"recipe_directions":"You can use cod, scrod, or any other mild white fish in place of the tilapia."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"456\nCalories\n\n\n12g \nFat\n\n\n53g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641788-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/63wDRqgMk8Lv3tOi9KQlQD_IVnk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x413:961x415):format(webp)/6646364-iskender-kebab-Tuncer-Pekdemir-4x3-1-ca6344ee3a6749159edc625c677f2a2a.jpg"
@@ -1883,59 +2120,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88080/iskender-kebab/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Iskender Kebab</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  pita bread rounds\n\n\n1 tablespoon olive oil\n\n\n4  skinless, boneless chicken breast halves - chopped\n\n\n2 medium onions, chopped\n\n\n1 clove garlic, minced\n\n\n1 (10.75 ounce) can  tomato paste\n\n\n  ground cumin to taste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n½ cup butter, melted\n\n\n1 cup Greek yogurt\n\n\n¼ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  pita bread rounds\n\n\n1 tablespoon olive oil\n\n\n4  skinless, boneless chicken breast halves - chopped\n\n\n2 medium onions, chopped\n\n\n1 clove garlic, minced\n\n\n1 (10.75 ounce) can  tomato paste\n\n\n  ground cumin to taste\n\n\n  salt to taste\n\n\n  ground black pepper to taste\n\n\n½ cup butter, melted\n\n\n1 cup Greek yogurt\n\n\n¼ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Arrange pita bread on a baking sheet."},{"recipe_directions":"Bake pitas in the preheated oven until lightly toasted; cut into bite-sized pieces and keep warm."},{"recipe_directions":"Heat oil in a skillet over medium heat. Stir in chicken, onion, and garlic; cook until chicken is cooked through and juices run clear, about 10 minutes. Mix in tomato purée; season with cumin, salt, and pepper. Continue to cook and stir for a few minutes."},{"recipe_directions":"Arrange toasted pita pieces in a serving dish. Drizzle with melted butter and top with chicken mixture. Garnish with yogurt and parsley to serve."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"667\nCalories\n\n\n36g \nFat\n\n\n49g \nCarbs\n\n\n37g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641791-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9ZOKgZSsipmbrgGLeubIbHOKx70=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/996071-92629c3cc4024c60b8d1ead40523cbd5.jpg"
@@ -1948,59 +2181,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219818/turkish-red-lentil-bride-soup/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Turkish Red Lentil 'Bride' Soup</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n2  onions, finely chopped\n\n\n1 teaspoon paprika\n\n\n1 cup red lentils\n\n\n½ cup fine bulgur\n\n\n2 tablespoons tomato paste\n\n\n8 cups vegetable stock\n\n\n⅛ teaspoon cayenne pepper\n\n\n1 tablespoon dried mint leaves\n\n\n4 slices  lemon\n\n\n½ teaspoon chopped fresh mint"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n2  onions, finely chopped\n\n\n1 teaspoon paprika\n\n\n1 cup red lentils\n\n\n½ cup fine bulgur\n\n\n2 tablespoons tomato paste\n\n\n8 cups vegetable stock\n\n\n⅛ teaspoon cayenne pepper\n\n\n1 tablespoon dried mint leaves\n\n\n4 slices  lemon\n\n\n½ teaspoon chopped fresh mint'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a large saucepan over low heat. Cook onions in hot butter until golden brown, about 15 minutes."},{"recipe_directions":"Stir paprika, lentils, and bulgur into onions to coat with butter."},{"recipe_directions":"Add tomato paste, vegetable stock, and cayenne pepper; bring to a boil and cook until soft and creamy, about 1 hour."},{"recipe_directions":"Crumble dried mint leaves into soup; stir and remove from heat."},{"recipe_directions":"Ladle into bowls and garnish with lemon slices and fresh mint to serve."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"442\nCalories\n\n\n14g \nFat\n\n\n64g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641795-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RYn5KfhmvQ-Srm0_hgy5llr3g-s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1291x0:1293x2):format(webp)/9325263-d1a9f700adb349c58fd1def27f262ed4.jpg"
@@ -2013,59 +2242,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76110/tava-or-turkish-stew/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Tava or Turkish Stew</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil, divided\n\n\n1 ½ pounds skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n½ (12 ounce) jar roasted red bell peppers, drained\n\n\n1 (14.5 ounce) can diced tomatoes with juice\n\n\n1 (6 ounce) jar mushrooms, drained\n\n\n1  onion, diced\n\n\n1 tablespoon minced garlic\n\n\n  salt and pepper to taste\n\n\n1 (16 ounce) package shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil, divided\n\n\n1 ½ pounds skinless, boneless chicken breast halves - cut into 1 inch cubes\n\n\n½ (12 ounce) jar roasted red bell peppers, drained\n\n\n1 (14.5 ounce) can diced tomatoes with juice\n\n\n1 (6 ounce) jar mushrooms, drained\n\n\n1  onion, diced\n\n\n1 tablespoon minced garlic\n\n\n  salt and pepper to taste\n\n\n1 (16 ounce) package shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease a medium casserole dish."},{"recipe_directions":"Heat 1 tablespoon oil in a skillet over medium heat, and cook the chicken until juices run clear."},{"recipe_directions":"Puree the roasted red peppers in a blender or food processor until smooth. In the prepared casserole dish, mix the cooked chicken, roasted red peppers, tomatoes, mushrooms, onion, and garlic. Season with salt and pepper. Drizzle with remaining 1 tablespoon olive oil, and top with mozzarella cheese."},{"recipe_directions":"Bake 30 minutes in the preheated oven, until cheese is melted and bubbly."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Stews"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"397\nCalories\n\n\n20g \nFat\n\n\n9g \nCarbs\n\n\n44g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641799-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mwohv5rs-8F2ArBlQlbIEnupKbQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4535470-ekmek-turkish-bread-Gremolata-4x3-1-20da525778724abfbd6de878303baf42.jpg"
@@ -2079,59 +2304,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21106/ekmek-turkish-bread/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Ekmek Turkish Bread</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n4 days 2 hrs\n\n\nTotal Time:\n4 days 3 hrs 30 mins\n\n\nServings:\n12 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups bread flour, divided\n\n\n¾ cup water, divided\n\n\n5 teaspoons active dry yeast\n\n\n1 teaspoon white sugar\n\n\n2 cups warm water (110 degrees F/45 degrees C)\n\n\n6 cups bread flour\n\n\n2 teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups bread flour, divided\n\n\n¾ cup water, divided\n\n\n5 teaspoons active dry yeast\n\n\n1 teaspoon white sugar\n\n\n2 cups warm water (110 degrees F/45 degrees C)\n\n\n6 cups bread flour\n\n\n2 teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"To make the starter: Place 1/2 cup flour and 1/4 cup water in a bowl with a lid; stir well. Cover and let sit at room temperature overnight. The next day, add 1/2 cup flour and 1/4 cup water to the bowl. Cover and let sit at room temperature overnight. On the third day, add 1/2 cup flour and 1/4 cup water to the bowl. Cover and let sit at room temperature overnight."},{"recipe_directions":"To make the dough: In a large bowl, dissolve yeast and sugar in warm water. Let stand until creamy, about 10 minutes."},{"recipe_directions":"Break the starter into small pieces and add it to the yeast mixture. Stir in 4 cups of flour and salt. Stir in the remaining flour, 1/2 cup at a time, beating well after each addition. When the dough has pulled together, turn it out onto a lightly floured surface and knead until smooth and elastic, about 8 minutes. Sprinkle a little flour over the dough and cover it with a dry cloth. Let it rise until doubled in size."},{"recipe_directions":"Put the dough back onto a lightly floured work surface and punch out the air. Divide the dough in half and knead each piece for 2 to 3 minutes. Shape each piece into a tight oval loaf. Sprinkle two sheet pans with corn meal. Roll and stretch the two loaves until they are 15x12-inch ovals. Dust the tops of the loaves with flour. Cover with a dry cloth and let them rise in a warm place until doubled in size. Meanwhile, preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Bake in the preheated oven for 30 to 40 minutes. Mist with water 3 times in the first 15 minutes. Loaves are done when their bottoms sound hollow when tapped. Let cool on wire racks before serving."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Sourdough Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"6\nCalories\n\n\n0g \nFat\n\n\n1g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641802-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PYjj_-UhIOuGQPtkr8TNAGQIImM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4559150-67c57a5e3c544dd89cdaa4d54b6069c4.jpg"
@@ -2142,59 +2363,55 @@
 Irmik Helvasi (Turkish Semolina Halva)</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215598/irmik-helvasi-turkish-semolina-halva/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Irmik Helvasi (Turkish Semolina Halva)</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 cups water\n\n\n3 cups white sugar\n\n\n2 cups butter\n\n\n2 ½ cups semolina flour\n\n\n½ cup pine nuts"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 cups water\n\n\n3 cups white sugar\n\n\n2 cups butter\n\n\n2 ½ cups semolina flour\n\n\n½ cup pine nuts'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water and sugar in a saucepan. Bring syrup to a boil."},{"recipe_directions":"Melt butter in a separate saucepan over medium-low heat, about 5 minutes. Add semolina and pine nuts. Cook, stirring continuously, until golden brown, 20 to 30 minutes."},{"recipe_directions":"Pour syrup carefully over the semolina mixture. Reduce heat to low. Cover and simmer until nicely thickened, about 5 minutes. Let rest for 15 minutes. Divide halva over several small dishes."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"497\nCalories\n\n\n34g \nFat\n\n\n51g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641807-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BLg27cNIwXth18l4j3G9mC2gh4E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1067559-dbed15f2f2cc447698caa0490caa838e.jpg"
@@ -2207,59 +2424,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215595/ashure/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Ashure</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 45 mins\n\n\nAdditional Time:\n1 day\n\n\nTotal Time:\n1 day 1 hr 55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups fine bulgur\n\n\n½ cup dry garbanzo beans\n\n\n½ cup dry white beans\n\n\n½ cup raisins\n\n\n15 cups water\n\n\n3 cups white sugar\n\n\n¼ cup dried apricots\n\n\n¼ cup orange peel, chopped\n\n\n5  whole cloves"},{"recipe_ingredients":"2 tablespoons sesame seeds, toasted\n\n\n2 tablespoons chopped walnuts\n\n\n2 tablespoons chopped pistachio nuts\n\n\n2 tablespoons dried currants\n\n\n1 tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups fine bulgur\n\n\n½ cup dry garbanzo beans\n\n\n½ cup dry white beans\n\n\n½ cup raisins\n\n\n15 cups water\n\n\n3 cups white sugar\n\n\n¼ cup dried apricots\n\n\n¼ cup orange peel, chopped\n\n\n5  whole cloves'}, {'recipe_ingredients': '2 tablespoons sesame seeds, toasted\n\n\n2 tablespoons chopped walnuts\n\n\n2 tablespoons chopped pistachio nuts\n\n\n2 tablespoons dried currants\n\n\n1 tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make pudding: Place bulgur, garbanzo beans, white beans, and raisins in 4 separate bowls and add water to cover. Let stand overnight."},{"recipe_directions":"The next day, combine garbanzo beans and white beans in a saucepan with water to cover. Bring to a boil; reduce heat to low and simmer, covered, until beans are tender, 1 to 1 1/2 hours. Drain and set aside."},{"recipe_directions":"Drain bulgur and transfer to a large saucepan. Add 15 cups water (3 quarts plus 3 cups) and bring to a boil. Reduce heat to low and simmer until tender, about 15 minutes, skimming and discarding any foam that appears."},{"recipe_directions":"When bulgur has thickened, stir in sugar and bring mixture to a boil. Add cooked beans to bulgur mixture. Stir in drained raisins, apricots, orange peel, and cloves. Reduce heat and simmer until pudding thickens and fruit is tender, about 15 minutes."},{"recipe_directions":"Pour pudding into individual serving bowls. Garnish with sesame seeds, walnuts, pistachios, currants, and cinnamon. Allow pudding to cool, then serve."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"390\nCalories\n\n\n3g \nFat\n\n\n88g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641810-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QE83aByR6IJQf72PuI3N2Fl89_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/4549643-chef-johns-baklava-Chef-John-1x1-1-6eab033d478f416dabc454c63534bd7a.jpg"
@@ -2273,59 +2486,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259482/chef-johns-baklava/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Chef John's Baklava</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n12 \n\n\nYield:\n1 (9-inch) round"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups walnut halves\n\n\n1 cup shelled pistachios\n\n\n1 ½ teaspoons ground cinnamon"},{"recipe_ingredients":"½ cup unsalted butter, melted\n\n\n12 sheets phyllo dough, thawed if frozen"},{"recipe_ingredients":"1 ½ cups sugar\n\n\n¾ cup water\n\n\n¼ cup honey\n\n\n3  whole cloves\n\n\n¼ teaspoon vanilla extract\n\n\n1 ½ teaspoons orange flower water"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups walnut halves\n\n\n1 cup shelled pistachios\n\n\n1 ½ teaspoons ground cinnamon'}, {'recipe_ingredients': '½ cup unsalted butter, melted\n\n\n12 sheets phyllo dough, thawed if frozen'}, {'recipe_ingredients': '1 ½ cups sugar\n\n\n¾ cup water\n\n\n¼ cup honey\n\n\n3  whole cloves\n\n\n¼ teaspoon vanilla extract\n\n\n1 ½ teaspoons orange flower water'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place walnuts, pistachios, and cinnamon in bowl of a food processor. Pulse on and off until mixture is chopped but not too fine."},{"recipe_directions":"Brush bottom of 9-inch round baking pan with melted butter. Place one round of phyllo dough in the pan; add a second round of dough. Drip about 1 tablespoon of melted butter over the top. Add 2 more sheets and drizzle with butter. Add 2 more sheets and drip with butter creating 6 layers for the bottom. (While you work keep the phyllo sheets covered with a damp, nearly dry, cotton towel to keep dough from drying out.)"},{"recipe_directions":"Sprinkle with 1/3 of the nut mixture. Top with a sheet of phyllo and drip with melted butter; repeat with 1 more sheet of filo. Add another 1/3 of the nut mixture."},{"recipe_directions":"Place another sheet of phyllo on the nuts; drip with butter. Top with another sheet and drip with butter. Add the remaining nut mixture."},{"recipe_directions":"Top with 2 sheets of phyllo; drip with butter. Add 2 more sheets; drip with butter. Top with the last 2 sheets and drizzle generously with the remaining butter. Cover pan with plastic and refrigerate until completely chilled, about 1 hour."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cut baklava into about 12 diamond-shaped pieces approximately the same size."},{"recipe_directions":"Bake in preheated oven until browned and crisp, about an hour."},{"recipe_directions":"Place sugar, honey, and cloves in a saucepan. Pour in water. Place pan over medium-high heat and whisk to combine. Bring to a boil; remove from heat. Whisk in vanilla and orange blossom water."},{"recipe_directions":"After baklava has rested 5 minutes, ladle syrup over the top. Cool down to room temperature before serving."},{"recipe_directions":"If you want to use homemade phyllo dough, use 16 sheets in the baklava. Get the recipe for Chef John's Homemade Phyllo Dough."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Greek"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"466\nCalories\n\n\n30g \nFat\n\n\n47g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641814-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SghEsm1fNfwb6PA_fwdr0QhaRxY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2030353-a95032a666444357bed27f95b912c422.jpg"
@@ -2338,59 +2547,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/203223/haydari-turkish-yogurt-dip/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Haydari (Turkish Yogurt Dip)</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) container plain yogurt\n\n\n5 cloves garlic\n\n\n1 pinch salt\n\n\n1 bunch fresh dill, chopped\n\n\n1 bunch fresh parsley, chopped\n\n\n1 (4 ounce) package cream cheese, softened (Optional)\n\n\n2  mint leaves, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) container plain yogurt\n\n\n5 cloves garlic\n\n\n1 pinch salt\n\n\n1 bunch fresh dill, chopped\n\n\n1 bunch fresh parsley, chopped\n\n\n1 (4 ounce) package cream cheese, softened (Optional)\n\n\n2  mint leaves, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a colander with two layers of cheesecloth and place over a medium bowl. Place the yogurt on the cheesecloth and cover the colander with plastic wrap. Allow yogurt to drain 8 hours or overnight."},{"recipe_directions":"Scoop the drained yogurt into a mixing bowl. Mash the garlic cloves with the salt into a fine paste; mix into the yogurt. Stir the dill, parsley, and cream cheese into the yogurt and garlic mixture. Spread onto a dish and garnish with the mint leaves to serve."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n6g \nFat\n\n\n6g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641817-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Yd-GeqTpMa44ioJQ3YiQstmtCBI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(986x0:988x2):format(webp)/8605224-9742b31157e34b84904a1097885479ea.jpg"
@@ -2403,59 +2608,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215599/bazlama-turkish-flat-bread/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Bazlama - Turkish Flat Bread</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 3 hrs 15 mins\n\n\nTotal Time:\n 4 hrs\n\n\nServings:\n4 \n\n\nYield:\n4 flatbreads"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (.25 ounce) package active dry yeast\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon salt\n\n\n1 ½ cups warm water (110 degrees F/45 degrees C)\n\n\n½ cup Greek-style yogurt\n\n\n4 cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (.25 ounce) package active dry yeast\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon salt\n\n\n1 ½ cups warm water (110 degrees F/45 degrees C)\n\n\n½ cup Greek-style yogurt\n\n\n4 cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve the yeast, sugar, and salt in the warm water. Add the water and yogurt to the flour and mix well. The dough will be soft but not sticky. Turn the dough out onto a lightly floured surface and shape it into a ball. Cover the dough with a damp cloth and allow it to rise at room temperature for 3 hours."},{"recipe_directions":"Cut the dough into four portions. Shape the dough into rounds and flatten each round as though you're making pizza dough. Cover the rounds with a damp cloth and let the dough rest for 15 minutes."},{"recipe_directions":"Heat a cast iron skillet or griddle over medium-high heat. Place one dough round in the skillet and bake until brown spots appear on the bottom, about 1 minute. Flip the bread and bake for an additional minute. Remove the bread and wrap it in a clean kitchen towel to keep warm."},{"recipe_directions":"Repeat with the remaining dough rounds. Store any leftover flatbreads in an airtight container."},{"recipe_directions":"If you can't find Greek-style yogurt (suzme), use regular yogurt and reduce the water in the recipe to 1 1/4 cups."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Flat Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"505\nCalories\n\n\n4g \nFat\n\n\n100g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641821-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YNG4K08e40v_8EyEqYEUSmd9cm4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7568925-turkish-red-lentil-soup-with-mint-trish-4x3-1-70c42b6fd2004443841f072db2fa4840.jpg"
@@ -2469,59 +2670,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219817/turkish-red-lentil-soup-with-mint/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Turkish Red Lentil Soup with Mint</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n½  onion, diced\n\n\n1 clove garlic, minced\n\n\n¼ cup diced tomatoes, drained\n\n\n5 cups chicken stock\n\n\n½ cup red lentils\n\n\n¼ cup fine bulgur\n\n\n¼ cup rice\n\n\n2 tablespoons tomato paste\n\n\n1 tablespoon dried mint\n\n\n1 teaspoon paprika\n\n\n½ teaspoon cayenne pepper (Optional)\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n½  onion, diced\n\n\n1 clove garlic, minced\n\n\n¼ cup diced tomatoes, drained\n\n\n5 cups chicken stock\n\n\n½ cup red lentils\n\n\n¼ cup fine bulgur\n\n\n¼ cup rice\n\n\n2 tablespoons tomato paste\n\n\n1 tablespoon dried mint\n\n\n1 teaspoon paprika\n\n\n½ teaspoon cayenne pepper (Optional)\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large pot over high heat. Add onion and sauté until beginning to soften, about 2 minutes. Stir in garlic and cook for 2 minutes. Add diced tomatoes and cook for 10 minutes."},{"recipe_directions":"Stir in chicken stock, lentils, bulgur, rice, tomato paste, mint, paprika, cayenne pepper, salt, and black pepper; bring to a boil. Reduce the heat to medium-low and simmer until lentils and rice are tender, about 30 minutes."},{"recipe_directions":"Purée soup with an immersion blender until smooth."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Soups, Stews and Chili Recipes"},{"recipe_tags":"Soup Recipes"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Lentil Soup Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n6g \nFat\n\n\n24g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641824-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2GWzPmNiz8Q0Pt5UfviHEHtIhmA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(559x749:561x751):format(webp)/5119117-homemade-manti-traditional-turkish-dumplings-Will-Finley-4x3-1-467109515d8143e9a1b679ba9e363744.jpg"
@@ -2535,59 +2732,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/154920/homemade-manti-traditional-turkish-dumplings/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Homemade Manti (Traditional Turkish Dumplings)</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour, plus more for dusting\n\n\n½ teaspoon salt\n\n\n2 large eggs\n\n\n½ teaspoon water, or as needed"},{"recipe_ingredients":"2  onions, peeled\n\n\n½ pound ground beef\n\n\n  salt and pepper to taste"},{"recipe_ingredients":"3 tablespoons vegetable oil\n\n\n1 tablespoon red pepper flakes"},{"recipe_ingredients":"1 (8 ounce) container plain yogurt\n\n\n1 tablespoon minced garlic"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour, plus more for dusting\n\n\n½ teaspoon salt\n\n\n2 large eggs\n\n\n½ teaspoon water, or as needed'}, {'recipe_ingredients': '2  onions, peeled\n\n\n½ pound ground beef\n\n\n  salt and pepper to taste'}, {'recipe_ingredients': '3 tablespoons vegetable oil\n\n\n1 tablespoon red pepper flakes'}, {'recipe_ingredients': '1 (8 ounce) container plain yogurt\n\n\n1 tablespoon minced garlic'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make dough: Combine flour and salt in a large bowl. Add eggs and water, mixing well with your hands. Add more water, if needed, to form a soft dough. Cover and set aside for at least 30 minutes."},{"recipe_directions":"Make filling: Shred onions and place them in a colander or sieve set over a bowl; drain and discard juice. Combine drained onion, ground beef, salt, and pepper in a medium bowl; mix well with a spoon until mashed. Set filling aside."},{"recipe_directions":"Lightly flour a work surface and a large plate."},{"recipe_directions":"Divide dough in half. Working with one piece at a time, roll dough on the floured surface into a rectangle as thin as possible. Cut into 2-inch squares using a knife or pastry wheel."},{"recipe_directions":"Place about 2 teaspoons filling in the center of each square. Gather the edges of dough and pinch them together at the top to form a bundle. Transfer manti to the prepared plate; sprinkle more flour on top to prevent sticking."},{"recipe_directions":"Make oil: Heat oil and red pepper flakes in a small skillet over low heat just until pepper flakes begin to color oil. Remove from heat and keep warm."},{"recipe_directions":"Make sauce: Stir together yogurt and garlic in a small bowl; set aside."},{"recipe_directions":"Bring a large pot of salted water to a boil over medium-high heat. Cook manti in boiling water until filling is no longer pink and dough is tender, 20 to 25 minutes. Drain well."},{"recipe_directions":"Divide manti onto 4 plates. Spoon yogurt sauce over manti and drizzle with pepper oil."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Dumpling Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"560\nCalories\n\n\n23g \nFat\n\n\n64g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641828-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1825/world-cuisine/middle-eastern/turkish/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-gc6WE70WEIvEndZyB5haFpwMw0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/244632-turkish-chicken-kebabs-DDMFS-4x3-3ff76ccc15394d04b25918a06e355b80.jpg"
@@ -2601,42 +2794,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244632/turkish-chicken-kebabs/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Turkish Chicken Kebabs</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n12 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 27 mins\n\n\nServings:\n4 \n\n\nYield:\n4 large portions"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup whole-milk Greek yogurt\n\n\n6 cloves garlic, minced\n\n\n2 tablespoons olive oil\n\n\n2 tablespoons freshly squeezed lemon juice, or more to taste\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon Aleppo red pepper flakes\n\n\n1 tablespoon kosher salt\n\n\n1 ½ teaspoons ground cumin\n\n\n1 teaspoon freshly ground black pepper\n\n\n1 teaspoon paprika\n\n\n⅛ teaspoon ground cinnamon\n\n\n2 ½ pounds boneless, skinless chicken thighs, halved\n\n\n4  long metal skewers"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup whole-milk Greek yogurt\n\n\n6 cloves garlic, minced\n\n\n2 tablespoons olive oil\n\n\n2 tablespoons freshly squeezed lemon juice, or more to taste\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon Aleppo red pepper flakes\n\n\n1 tablespoon kosher salt\n\n\n1 ½ teaspoons ground cumin\n\n\n1 teaspoon freshly ground black pepper\n\n\n1 teaspoon paprika\n\n\n⅛ teaspoon ground cinnamon\n\n\n2 ½ pounds boneless, skinless chicken thighs, halved\n\n\n4  long metal skewers'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk yogurt, garlic, olive oil, lemon juice, ketchup, red pepper flakes, salt, cumin, black pepper, paprika, and cinnamon together in a large bowl."},{"recipe_directions":"Place chicken thigh halves into the yogurt marinade and coat them thoroughly on all sides. Cover the bowl with plastic wrap and refrigerate, 2 to 8 hours."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Using 2 skewers for each kebab, thread half of the chicken thighs onto each pair of skewers making a fairly thick \"log\" shape."},{"recipe_directions":"Place kebabs on the preheated grill. Do not try to turn them until they begin to unstick from the grill, 3 or 4 minutes. Turn kebabs and grill the other side for 3 to 4 minutes. Continue cooking and turning until chicken is no longer pink in the center, about 6 minutes more. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Turkish"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"539\nCalories\n\n\n33g \nFat\n\n\n8g \nCarbs\n\n\n52g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>